--- a/ui-testsuite/src/main/resources/TestData/Order_UnassignRule_ESP.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_UnassignRule_ESP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Pipeline\Data test\"/>
     </mc:Choice>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="269">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -821,6 +821,21 @@
   </si>
   <si>
     <t>Platform - VERTICA</t>
+  </si>
+  <si>
+    <t>6547193588</t>
+  </si>
+  <si>
+    <t>5906731715</t>
+  </si>
+  <si>
+    <t>8145707203</t>
+  </si>
+  <si>
+    <t>5772477486</t>
+  </si>
+  <si>
+    <t>0730233791</t>
   </si>
 </sst>
 </file>
@@ -830,7 +845,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="13">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -879,6 +894,31 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1296,73 +1336,73 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="37.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="25.6640625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="28.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="35.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="37.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19" style="1" customWidth="1"/>
-    <col min="46" max="47" width="19" style="2" customWidth="1"/>
-    <col min="48" max="52" width="19" style="1" customWidth="1"/>
-    <col min="53" max="53" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="66" width="23.5" style="13" customWidth="1"/>
-    <col min="67" max="70" width="22.33203125" style="2" customWidth="1"/>
-    <col min="71" max="71" width="23.5" style="2" customWidth="1"/>
-    <col min="72" max="72" width="23.5" style="1" customWidth="1"/>
-    <col min="73" max="73" width="23.5" style="2" customWidth="1"/>
-    <col min="74" max="74" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="20.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="21.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="40.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="21.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="21.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="26.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="37.1640625" collapsed="true"/>
+    <col min="12" max="14" bestFit="true" customWidth="true" style="1" width="25.83203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="30.33203125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="25.83203125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="22.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="28.1640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="16.83203125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="37.5" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="30.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="30.83203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="20.6640625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="21.83203125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="21.1640625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="18.1640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="16.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="16.33203125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="25.0" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="30.83203125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="22.1640625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="28.5" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="26.33203125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="37.33203125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="1" width="17.1640625" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="1" width="25.6640625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" style="1" width="28.5" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="1" width="35.5" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="1" width="37.1640625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="1" width="20.6640625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="16.6640625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="1" width="20.83203125" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="46" max="47" customWidth="true" style="2" width="19.0" collapsed="true"/>
+    <col min="48" max="52" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="1" width="15.83203125" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="1" width="12.6640625" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" style="1" width="14.6640625" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" style="1" width="19.1640625" collapsed="true"/>
+    <col min="57" max="58" bestFit="true" customWidth="true" style="1" width="7.6640625" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" style="1" width="12.83203125" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="1" width="8.5" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" style="1" width="11.33203125" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" style="1" width="9.33203125" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" style="1" width="15.33203125" collapsed="true"/>
+    <col min="64" max="66" customWidth="true" style="13" width="23.5" collapsed="true"/>
+    <col min="67" max="70" customWidth="true" style="2" width="22.33203125" collapsed="true"/>
+    <col min="71" max="71" customWidth="true" style="2" width="23.5" collapsed="true"/>
+    <col min="72" max="72" customWidth="true" style="1" width="23.5" collapsed="true"/>
+    <col min="73" max="73" customWidth="true" style="2" width="23.5" collapsed="true"/>
+    <col min="74" max="74" bestFit="true" customWidth="true" style="1" width="15.33203125" collapsed="true"/>
+    <col min="75" max="75" bestFit="true" customWidth="true" style="1" width="9.1640625" collapsed="true"/>
+    <col min="76" max="76" bestFit="true" customWidth="true" style="1" width="13.1640625" collapsed="true"/>
+    <col min="77" max="77" bestFit="true" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="78" max="78" bestFit="true" customWidth="true" style="1" width="16.33203125" collapsed="true"/>
+    <col min="79" max="79" bestFit="true" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="80" max="16384" style="1" width="9.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:79" s="12" customFormat="1" ht="12.75">
@@ -1750,8 +1790,8 @@
       <c r="AW2" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX2" s="1">
-        <v>214002901789</v>
+      <c r="AX2" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="AY2" s="12" t="s">
         <v>115</v>
@@ -1966,8 +2006,8 @@
       <c r="AW3" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX3" s="1">
-        <v>214002901789</v>
+      <c r="AX3" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="AY3" s="1" t="s">
         <v>141</v>
@@ -2178,8 +2218,8 @@
       <c r="AW4" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX4" s="1">
-        <v>214002901789</v>
+      <c r="AX4" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="AY4" s="1" t="s">
         <v>141</v>
@@ -2390,8 +2430,8 @@
       <c r="AW5" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX5" s="1">
-        <v>214002901789</v>
+      <c r="AX5" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="AY5" s="1" t="s">
         <v>130</v>
@@ -2602,8 +2642,8 @@
       <c r="AW6" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX6" s="1">
-        <v>214002901789</v>
+      <c r="AX6" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="AY6" s="1" t="s">
         <v>130</v>
@@ -2814,8 +2854,8 @@
       <c r="AW7" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX7" s="1">
-        <v>214002901789</v>
+      <c r="AX7" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="AY7" s="1" t="s">
         <v>115</v>
@@ -3026,8 +3066,8 @@
       <c r="AW8" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX8" s="1">
-        <v>214002901789</v>
+      <c r="AX8" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="AY8" s="1" t="s">
         <v>130</v>
@@ -3238,8 +3278,8 @@
       <c r="AW9" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX9" s="1">
-        <v>214002901789</v>
+      <c r="AX9" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="AY9" s="1" t="s">
         <v>130</v>
@@ -3450,8 +3490,8 @@
       <c r="AW10" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX10" s="1">
-        <v>214002901789</v>
+      <c r="AX10" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="AY10" s="1" t="s">
         <v>130</v>
@@ -3662,8 +3702,8 @@
       <c r="AW11" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX11" s="1">
-        <v>214002901789</v>
+      <c r="AX11" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="AY11" s="1" t="s">
         <v>130</v>
@@ -3874,8 +3914,8 @@
       <c r="AW12" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX12" s="1">
-        <v>214002901789</v>
+      <c r="AX12" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="AY12" s="1" t="s">
         <v>130</v>
@@ -4089,8 +4129,8 @@
       <c r="AW13" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX13" s="1">
-        <v>214002901789</v>
+      <c r="AX13" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="AY13" s="1" t="s">
         <v>130</v>
@@ -4301,8 +4341,8 @@
       <c r="AW14" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX14" s="1">
-        <v>214002901789</v>
+      <c r="AX14" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="AY14" s="1" t="s">
         <v>130</v>
@@ -4516,8 +4556,8 @@
       <c r="AW15" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX15" s="1">
-        <v>214002901789</v>
+      <c r="AX15" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="AY15" s="1" t="s">
         <v>130</v>

--- a/ui-testsuite/src/main/resources/TestData/Order_UnassignRule_ESP.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_UnassignRule_ESP.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="272">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -836,6 +836,15 @@
   </si>
   <si>
     <t>0730233791</t>
+  </si>
+  <si>
+    <t>0965750725</t>
+  </si>
+  <si>
+    <t>9443728743</t>
+  </si>
+  <si>
+    <t>0251433768</t>
   </si>
 </sst>
 </file>
@@ -845,7 +854,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -894,6 +903,21 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1791,7 +1815,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AY2" s="12" t="s">
         <v>115</v>
@@ -2007,7 +2031,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AY3" s="1" t="s">
         <v>141</v>
@@ -2219,7 +2243,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AY4" s="1" t="s">
         <v>141</v>
@@ -2431,7 +2455,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AY5" s="1" t="s">
         <v>130</v>
@@ -2643,7 +2667,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AY6" s="1" t="s">
         <v>130</v>
@@ -2855,7 +2879,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AY7" s="1" t="s">
         <v>115</v>
@@ -3067,7 +3091,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX8" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AY8" s="1" t="s">
         <v>130</v>
@@ -3279,7 +3303,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AY9" s="1" t="s">
         <v>130</v>
@@ -3491,7 +3515,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX10" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AY10" s="1" t="s">
         <v>130</v>
@@ -3703,7 +3727,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX11" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AY11" s="1" t="s">
         <v>130</v>
@@ -3915,7 +3939,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX12" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AY12" s="1" t="s">
         <v>130</v>
@@ -4130,7 +4154,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX13" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AY13" s="1" t="s">
         <v>130</v>
@@ -4342,7 +4366,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX14" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AY14" s="1" t="s">
         <v>130</v>
@@ -4557,7 +4581,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX15" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AY15" s="1" t="s">
         <v>130</v>

--- a/ui-testsuite/src/main/resources/TestData/Order_UnassignRule_ESP.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_UnassignRule_ESP.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="274">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -845,6 +845,12 @@
   </si>
   <si>
     <t>0251433768</t>
+  </si>
+  <si>
+    <t>0268766631</t>
+  </si>
+  <si>
+    <t>4116915335</t>
   </si>
 </sst>
 </file>
@@ -854,7 +860,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -903,6 +909,16 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1815,7 +1831,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AY2" s="12" t="s">
         <v>115</v>
@@ -2031,7 +2047,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AY3" s="1" t="s">
         <v>141</v>
@@ -2243,7 +2259,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AY4" s="1" t="s">
         <v>141</v>
@@ -2455,7 +2471,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AY5" s="1" t="s">
         <v>130</v>
@@ -2667,7 +2683,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AY6" s="1" t="s">
         <v>130</v>
@@ -2879,7 +2895,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AY7" s="1" t="s">
         <v>115</v>
@@ -3091,7 +3107,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX8" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AY8" s="1" t="s">
         <v>130</v>
@@ -3303,7 +3319,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AY9" s="1" t="s">
         <v>130</v>
@@ -3515,7 +3531,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX10" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AY10" s="1" t="s">
         <v>130</v>
@@ -3727,7 +3743,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX11" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AY11" s="1" t="s">
         <v>130</v>
@@ -3939,7 +3955,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX12" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AY12" s="1" t="s">
         <v>130</v>
@@ -4154,7 +4170,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX13" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AY13" s="1" t="s">
         <v>130</v>
@@ -4366,7 +4382,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX14" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AY14" s="1" t="s">
         <v>130</v>
@@ -4581,7 +4597,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX15" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AY15" s="1" t="s">
         <v>130</v>
